--- a/Results/Categorization/lda2vec-partial-ner-fasttext-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-fasttext-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1821">
   <si>
     <t>id</t>
   </si>
@@ -4039,52 +4039,52 @@
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
     <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
@@ -4126,327 +4126,321 @@
     <t>SERVICE|FOOD|AMBIENCE|SERVICE</t>
   </si>
   <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE||</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
     <t>PRICES|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES||SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES||PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|||SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>PRICES|SERVICE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES||SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|PRICES|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES||AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|FOOD|||SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
     <t>SERVICE|SERVICE|AMBIENCE|PRICES</t>
   </si>
   <si>
@@ -4474,18 +4468,12 @@
     <t>service|price</t>
   </si>
   <si>
-    <t>service|decor|always|thing|excellent</t>
+    <t>service|decor|always|excellent</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>food|thing</t>
-  </si>
-  <si>
-    <t>thing|special</t>
-  </si>
-  <si>
     <t>never|though</t>
   </si>
   <si>
@@ -4528,7 +4516,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6</t>
+    <t>food|fresh|$6!-</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4549,7 +4537,7 @@
     <t>ambience|would|best|nice</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|reasonable|food|great|great|great|price</t>
@@ -4615,7 +4603,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4627,6 +4615,9 @@
     <t>service|pizza|great</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>best|sushi</t>
   </si>
   <si>
@@ -4681,7 +4672,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00...just</t>
+    <t>overpriced|price|$8.00!-</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4777,13 +4768,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>service|good|restaurant|thing</t>
-  </si>
-  <si>
-    <t>delicious|thing</t>
+    <t>service|good|restaurant</t>
+  </si>
+  <si>
+    <t>delicious</t>
   </si>
   <si>
     <t>service|though|reasonable|price</t>
@@ -4792,7 +4780,7 @@
     <t>delicious|restaurant|food|fresh|fresh</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4816,16 +4804,16 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18</t>
+    <t>menu|food|$18!-</t>
   </si>
   <si>
     <t>service|food|great|price</t>
   </si>
   <si>
-    <t>atmosphere|thing|wait</t>
-  </si>
-  <si>
-    <t>dish|reasonable|price|$3-6</t>
+    <t>atmosphere|wait</t>
+  </si>
+  <si>
+    <t>dish|reasonable|price|$3-6!-</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4837,9 +4825,6 @@
     <t>dish|fresh</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
     <t>place|delicious|food|staff</t>
   </si>
   <si>
@@ -4858,7 +4843,7 @@
     <t>delicious|though</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>bombay|beer</t>
   </si>
   <si>
     <t>place|nice</t>
@@ -4882,7 +4867,7 @@
     <t>ambience|like</t>
   </si>
   <si>
-    <t>dish|menu|thing</t>
+    <t>dish|menu</t>
   </si>
   <si>
     <t>place|good|meal</t>
@@ -4900,7 +4885,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70+</t>
+    <t>wine|$70!-|$30!-</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -4927,7 +4912,7 @@
     <t>service|place</t>
   </si>
   <si>
-    <t>service|atmosphere|restaurant|food|thing|great|great</t>
+    <t>service|atmosphere|restaurant|food|great|great</t>
   </si>
   <si>
     <t>service|menu|staff|meal</t>
@@ -4960,7 +4945,7 @@
     <t>service|ambience|nice|great</t>
   </si>
   <si>
-    <t>atmosphere|sushi|feel|like|thing|special</t>
+    <t>atmosphere|sushi|feel|like|special</t>
   </si>
   <si>
     <t>well|staff</t>
@@ -4981,7 +4966,7 @@
     <t>service|always|great</t>
   </si>
   <si>
-    <t>rude|thing|wait</t>
+    <t>rude|wait</t>
   </si>
   <si>
     <t>make|service|place|worth|feel|like|food|price|price</t>
@@ -5002,7 +4987,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|thing|$7)</t>
+    <t>like|$7!-</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -5023,7 +5008,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24</t>
+    <t>good|though|price|$24!-</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -5032,7 +5017,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10.</t>
+    <t>great|$10!-</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -5047,15 +5032,12 @@
     <t>make|feel|like|wait|staff</t>
   </si>
   <si>
-    <t>service|thing|thing|wait</t>
+    <t>service|wait</t>
   </si>
   <si>
     <t>good|wait|wait</t>
   </si>
   <si>
-    <t>dinner|thing|thing</t>
-  </si>
-  <si>
     <t>place|would|good|great|staff</t>
   </si>
   <si>
@@ -5065,7 +5047,7 @@
     <t>service|restaurant|back</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
+    <t>gentleman|manager|table|smile|order</t>
   </si>
   <si>
     <t>food|great|price</t>
@@ -5083,7 +5065,7 @@
     <t>worth|well|back</t>
   </si>
   <si>
-    <t>place|special|money.</t>
+    <t>place|special</t>
   </si>
   <si>
     <t>service|excellent</t>
@@ -5098,9 +5080,6 @@
     <t>pizza|price</t>
   </si>
   <si>
-    <t>wait|money</t>
-  </si>
-  <si>
     <t>wait|staff</t>
   </si>
   <si>
@@ -5110,19 +5089,16 @@
     <t>place|great</t>
   </si>
   <si>
-    <t>service|thing</t>
-  </si>
-  <si>
     <t>place|worth|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great</t>
+    <t>like|great|100 dollar!-</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5134,13 +5110,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|she's-way-cuter-than-me-that-b@#$*</t>
+    <t>wait|staff|$*!-</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50</t>
+    <t>great|great|$8.50!-</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5191,19 +5167,13 @@
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>thing|wait</t>
-  </si>
-  <si>
     <t>place|decor|food|great|great|price</t>
   </si>
   <si>
-    <t>place|food|money.</t>
-  </si>
-  <si>
     <t>good|reasonable|food|wine|great|price</t>
   </si>
   <si>
-    <t>overpriced|good|thing|price</t>
+    <t>overpriced|good|price</t>
   </si>
   <si>
     <t>would|food|price</t>
@@ -5218,7 +5188,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>reasonable|food|great|price</t>
@@ -5227,7 +5197,7 @@
     <t>good|food|price</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|good|food|great|price</t>
@@ -5248,10 +5218,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15....</t>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15!-</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5260,7 +5230,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60</t>
+    <t>good|though|meal|$60!-</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5269,7 +5239,7 @@
     <t>place|dinner|great</t>
   </si>
   <si>
-    <t>make|atmosphere|back|thing</t>
+    <t>make|atmosphere|back</t>
   </si>
   <si>
     <t>food|excellent|great|price</t>
@@ -5281,19 +5251,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00</t>
+    <t>dinner|$400.00!-</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11</t>
+    <t>plate|guacamole|$11!-</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5320,13 +5290,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10.</t>
-  </si>
-  <si>
-    <t>decor|thing</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500</t>
+    <t>service|dish|price|$10!-</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5338,19 +5305,16 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>back|money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|dinner|$55</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|dinner|$55!-</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5359,16 +5323,16 @@
     <t>would|dinner|meal</t>
   </si>
   <si>
-    <t>never|feel|restaurant|money.</t>
+    <t>never|feel|restaurant</t>
   </si>
   <si>
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25),</t>
-  </si>
-  <si>
-    <t>place|food|thing|$</t>
+    <t>place|would|feel|restaurant|price|$25!-</t>
+  </si>
+  <si>
+    <t>place|food|$!-</t>
   </si>
   <si>
     <t>worth</t>
@@ -5377,19 +5341,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
+    <t>stone|bowl|$2!-</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29</t>
-  </si>
-  <si>
-    <t>good|reasonable|thing|great|price</t>
-  </si>
-  <si>
-    <t>service|rude|well|$500</t>
+    <t>menu|$29!-</t>
+  </si>
+  <si>
+    <t>good|reasonable|great|price</t>
+  </si>
+  <si>
+    <t>service|rude|well|$500!-</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5398,13 +5362,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24</t>
+    <t>never|restaurant|$24!-</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60</t>
+    <t>service|$60!-</t>
   </si>
   <si>
     <t>place|price</t>
@@ -5919,10 +5883,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H2" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5948,7 +5912,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5971,10 +5935,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H4" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5997,10 +5961,10 @@
         <v>1276</v>
       </c>
       <c r="G5" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H5" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6023,10 +5987,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H6" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6049,10 +6013,10 @@
         <v>1285</v>
       </c>
       <c r="G7" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H7" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6075,10 +6039,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H8" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6101,10 +6065,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="H9" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6127,10 +6091,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H10" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6153,10 +6117,10 @@
         <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H11" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6176,13 +6140,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="s">
-        <v>1488</v>
+        <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6202,13 +6166,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
+        <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H13" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6228,13 +6192,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G14" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H14" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6254,13 +6218,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H15" t="s">
-        <v>1804</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6280,13 +6244,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H16" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6306,13 +6270,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="H17" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6332,13 +6296,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G18" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H18" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6361,7 +6325,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6381,13 +6345,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G20" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H20" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6413,7 +6377,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6439,7 +6403,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6459,13 +6423,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G23" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="H23" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6485,13 +6449,13 @@
         <v>1278</v>
       </c>
       <c r="F24" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G24" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H24" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6517,7 +6481,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6540,10 +6504,10 @@
         <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="H26" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6566,10 +6530,10 @@
         <v>1339</v>
       </c>
       <c r="G27" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="H27" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6589,10 +6553,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H28" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6612,13 +6576,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G29" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H29" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6638,13 +6602,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G30" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H30" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6664,13 +6628,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G31" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="H31" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6690,13 +6654,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G32" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="H32" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6716,13 +6680,13 @@
         <v>1278</v>
       </c>
       <c r="F33" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G33" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H33" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6742,13 +6706,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G34" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H34" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6771,10 +6735,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H35" t="s">
-        <v>1806</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6794,13 +6758,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G36" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="H36" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6823,10 +6787,10 @@
         <v>1276</v>
       </c>
       <c r="G37" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H37" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6846,13 +6810,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G38" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="H38" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6875,10 +6839,10 @@
         <v>1355</v>
       </c>
       <c r="G39" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H39" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6901,10 +6865,10 @@
         <v>1356</v>
       </c>
       <c r="G40" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="H40" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6927,10 +6891,10 @@
         <v>1357</v>
       </c>
       <c r="G41" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="H41" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6953,10 +6917,10 @@
         <v>1358</v>
       </c>
       <c r="G42" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="H42" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6979,10 +6943,10 @@
         <v>1359</v>
       </c>
       <c r="G43" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="H43" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7008,7 +6972,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7034,7 +6998,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1807</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7054,13 +7018,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G46" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="H46" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7086,7 +7050,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7109,10 +7073,10 @@
         <v>1360</v>
       </c>
       <c r="G48" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="H48" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7135,10 +7099,10 @@
         <v>1361</v>
       </c>
       <c r="G49" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H49" t="s">
-        <v>1809</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7158,13 +7122,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G50" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H50" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7187,10 +7151,10 @@
         <v>1362</v>
       </c>
       <c r="G51" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="H51" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7213,10 +7177,10 @@
         <v>1363</v>
       </c>
       <c r="G52" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H52" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7236,13 +7200,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G53" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H53" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7265,10 +7229,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H54" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7291,10 +7255,10 @@
         <v>1364</v>
       </c>
       <c r="G55" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H55" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7317,10 +7281,10 @@
         <v>1365</v>
       </c>
       <c r="G56" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="H56" t="s">
-        <v>1811</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7343,10 +7307,10 @@
         <v>1366</v>
       </c>
       <c r="G57" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="H57" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7369,10 +7333,10 @@
         <v>1360</v>
       </c>
       <c r="G58" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H58" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7395,10 +7359,10 @@
         <v>1367</v>
       </c>
       <c r="G59" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="H59" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7421,10 +7385,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H60" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7450,7 +7414,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7473,10 +7437,10 @@
         <v>1368</v>
       </c>
       <c r="G62" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="H62" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7496,13 +7460,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G63" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="H63" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7525,10 +7489,10 @@
         <v>1369</v>
       </c>
       <c r="G64" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H64" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7548,13 +7512,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G65" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H65" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7574,13 +7538,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G66" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H66" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7600,13 +7564,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G67" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="H67" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7632,7 +7596,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7655,10 +7619,10 @@
         <v>1370</v>
       </c>
       <c r="G69" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="H69" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7681,10 +7645,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H70" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7710,7 +7674,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7733,10 +7697,10 @@
         <v>1371</v>
       </c>
       <c r="G72" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="H72" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7759,10 +7723,10 @@
         <v>1372</v>
       </c>
       <c r="G73" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="H73" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7785,10 +7749,10 @@
         <v>1373</v>
       </c>
       <c r="G74" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="H74" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7814,7 +7778,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7834,13 +7798,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1342</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1533</v>
       </c>
       <c r="H76" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7860,13 +7824,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G77" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="H77" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7886,13 +7850,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G78" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H78" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7915,10 +7879,10 @@
         <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="H79" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7941,10 +7905,10 @@
         <v>1374</v>
       </c>
       <c r="G80" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="H80" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7967,10 +7931,10 @@
         <v>1375</v>
       </c>
       <c r="G81" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H81" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7993,10 +7957,10 @@
         <v>1376</v>
       </c>
       <c r="G82" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="H82" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8022,7 +7986,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8048,7 +8012,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8071,10 +8035,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="H85" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8097,10 +8061,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="H86" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8123,10 +8087,10 @@
         <v>1339</v>
       </c>
       <c r="G87" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="H87" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8149,10 +8113,10 @@
         <v>1377</v>
       </c>
       <c r="G88" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H88" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8175,10 +8139,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H89" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8204,7 +8168,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8227,10 +8191,10 @@
         <v>1378</v>
       </c>
       <c r="G91" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="H91" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8253,10 +8217,10 @@
         <v>1361</v>
       </c>
       <c r="G92" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="H92" t="s">
-        <v>1815</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8279,10 +8243,10 @@
         <v>1379</v>
       </c>
       <c r="G93" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H93" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8305,10 +8269,10 @@
         <v>1380</v>
       </c>
       <c r="G94" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="H94" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8328,13 +8292,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G95" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="H95" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8357,10 +8321,10 @@
         <v>1285</v>
       </c>
       <c r="G96" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H96" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8383,10 +8347,10 @@
         <v>1285</v>
       </c>
       <c r="G97" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H97" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8409,10 +8373,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H98" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8432,13 +8396,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
       <c r="G99" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="H99" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8458,13 +8422,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G100" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H100" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8487,10 +8451,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H101" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8513,10 +8477,10 @@
         <v>1371</v>
       </c>
       <c r="G102" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="H102" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8536,13 +8500,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G103" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H103" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8565,10 +8529,10 @@
         <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="H104" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8594,7 +8558,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8614,13 +8578,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G106" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="H106" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8643,10 +8607,10 @@
         <v>1371</v>
       </c>
       <c r="G107" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="H107" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8666,13 +8630,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G108" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="H108" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8692,10 +8656,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H109" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8718,10 +8682,10 @@
         <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="H110" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8744,10 +8708,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="H111" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8770,10 +8734,10 @@
         <v>1285</v>
       </c>
       <c r="G112" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H112" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8799,7 +8763,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8825,7 +8789,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8845,13 +8809,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G115" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="H115" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8871,13 +8835,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G116" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H116" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8900,10 +8864,10 @@
         <v>1373</v>
       </c>
       <c r="G117" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H117" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8923,13 +8887,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G118" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H118" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8949,13 +8913,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G119" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="H119" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8981,7 +8945,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9007,7 +8971,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9033,7 +8997,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9059,7 +9023,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9079,13 +9043,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G124" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="H124" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9108,10 +9072,10 @@
         <v>1285</v>
       </c>
       <c r="G125" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H125" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9137,7 +9101,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9160,10 +9124,10 @@
         <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H127" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9186,10 +9150,10 @@
         <v>1377</v>
       </c>
       <c r="G128" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H128" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9209,13 +9173,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G129" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="H129" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9238,10 +9202,10 @@
         <v>1358</v>
       </c>
       <c r="G130" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="H130" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9261,13 +9225,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G131" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="H131" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9287,13 +9251,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G132" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="H132" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9313,13 +9277,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G133" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="H133" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9339,13 +9303,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G134" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="H134" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9371,7 +9335,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9391,13 +9355,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G136" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H136" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9420,10 +9384,10 @@
         <v>1358</v>
       </c>
       <c r="G137" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="H137" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9443,13 +9407,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G138" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="H138" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9469,13 +9433,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G139" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="H139" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9498,10 +9462,10 @@
         <v>1358</v>
       </c>
       <c r="G140" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="H140" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9527,7 +9491,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9547,13 +9511,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G142" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H142" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9576,10 +9540,10 @@
         <v>1377</v>
       </c>
       <c r="G143" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H143" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9602,10 +9566,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H144" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9631,7 +9595,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9651,13 +9615,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G146" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="H146" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9683,7 +9647,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9706,10 +9670,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="H148" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9728,14 +9692,8 @@
       <c r="E149" t="s">
         <v>1277</v>
       </c>
-      <c r="F149" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1587</v>
-      </c>
       <c r="H149" t="s">
-        <v>1817</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9755,13 +9713,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G150" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="H150" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9787,7 +9745,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1818</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9807,13 +9765,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="H152" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9833,13 +9791,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G153" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="H153" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9859,13 +9817,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G154" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="H154" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9885,13 +9843,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="H155" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9911,13 +9869,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G156" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="H156" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9940,10 +9898,10 @@
         <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H157" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9966,10 +9924,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H158" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9989,13 +9947,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G159" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="H159" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10018,10 +9976,10 @@
         <v>1375</v>
       </c>
       <c r="G160" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="H160" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10047,7 +10005,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10067,13 +10025,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G162" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="H162" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10099,7 +10057,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10119,13 +10077,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G164" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="H164" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10145,13 +10103,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G165" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="H165" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10171,13 +10129,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G166" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="H166" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10197,13 +10155,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G167" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="H167" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10223,13 +10181,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G168" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="H168" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10249,13 +10207,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="G169" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="H169" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10275,13 +10233,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G170" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="H170" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10301,13 +10259,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G171" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="H171" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10330,10 +10288,10 @@
         <v>1285</v>
       </c>
       <c r="G172" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="H172" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10356,10 +10314,10 @@
         <v>1339</v>
       </c>
       <c r="G173" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="H173" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10382,10 +10340,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1607</v>
+        <v>1585</v>
       </c>
       <c r="H174" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10405,13 +10363,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="G175" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="H175" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10434,10 +10392,10 @@
         <v>1285</v>
       </c>
       <c r="G176" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H176" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10457,13 +10415,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="G177" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="H177" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10483,13 +10441,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G178" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="H178" t="s">
-        <v>1819</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10509,13 +10467,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="G179" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="H179" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10535,13 +10493,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G180" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="H180" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10561,13 +10519,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G181" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="H181" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10593,7 +10551,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10616,10 +10574,10 @@
         <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H183" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10639,13 +10597,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="H184" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10665,13 +10623,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G185" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H185" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10691,13 +10649,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G186" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="H186" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10720,10 +10678,10 @@
         <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="H187" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10749,7 +10707,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10769,13 +10727,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G189" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="H189" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10801,7 +10759,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10821,13 +10779,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G191" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="H191" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10847,13 +10805,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="G192" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="H192" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10873,13 +10831,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G193" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="H193" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10902,10 +10860,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="H194" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10931,7 +10889,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10951,13 +10909,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G196" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="H196" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10983,7 +10941,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11006,10 +10964,10 @@
         <v>1285</v>
       </c>
       <c r="G198" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H198" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11029,13 +10987,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1397</v>
+        <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="H199" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11058,10 +11016,10 @@
         <v>1361</v>
       </c>
       <c r="G200" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H200" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11081,13 +11039,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G201" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="H201" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11107,13 +11065,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="G202" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="H202" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11133,13 +11091,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G203" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="H203" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11159,13 +11117,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="G204" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="H204" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11185,13 +11143,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="G205" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="H205" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11211,13 +11169,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="G206" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="H206" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11243,7 +11201,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11263,13 +11221,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G208" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="H208" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11295,7 +11253,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11318,10 +11276,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="H210" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11341,13 +11299,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G211" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="H211" t="s">
-        <v>1820</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11370,10 +11328,10 @@
         <v>1377</v>
       </c>
       <c r="G212" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="H212" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11396,10 +11354,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H213" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11419,13 +11377,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G214" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="H214" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11448,10 +11406,10 @@
         <v>1358</v>
       </c>
       <c r="G215" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="H215" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11477,7 +11435,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11497,13 +11455,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G217" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="H217" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11523,13 +11481,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="G218" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="H218" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11552,10 +11510,10 @@
         <v>1285</v>
       </c>
       <c r="G219" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H219" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11575,13 +11533,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G220" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="H220" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11607,7 +11565,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11627,13 +11585,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G222" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="H222" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11653,13 +11611,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G223" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="H223" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11679,13 +11637,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G224" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="H224" t="s">
-        <v>1822</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11711,7 +11669,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11737,7 +11695,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11763,7 +11721,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11783,13 +11741,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G228" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="H228" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11809,13 +11767,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="G229" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="H229" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11838,10 +11796,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H230" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11867,7 +11825,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11890,10 +11848,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="H232" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11916,10 +11874,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H233" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11939,13 +11897,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G234" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="H234" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11965,13 +11923,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G235" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="H235" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11991,13 +11949,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="G236" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="H236" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12017,13 +11975,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G237" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="H237" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12043,13 +12001,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G238" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="H238" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12069,13 +12027,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G239" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H239" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12095,13 +12053,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G240" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="H240" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12124,10 +12082,10 @@
         <v>1285</v>
       </c>
       <c r="G241" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H241" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12150,10 +12108,10 @@
         <v>1377</v>
       </c>
       <c r="G242" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H242" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12176,10 +12134,10 @@
         <v>1372</v>
       </c>
       <c r="G243" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="H243" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12199,13 +12157,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G244" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="H244" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12228,10 +12186,10 @@
         <v>1372</v>
       </c>
       <c r="G245" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="H245" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12257,7 +12215,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12277,13 +12235,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1423</v>
+        <v>1347</v>
       </c>
       <c r="G247" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="H247" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12309,7 +12267,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12329,13 +12287,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G249" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="H249" t="s">
-        <v>1804</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12355,13 +12313,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G250" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="H250" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12381,13 +12339,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G251" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="H251" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12407,13 +12365,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="G252" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="H252" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12433,13 +12391,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G253" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="H253" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12465,7 +12423,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12485,13 +12443,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G255" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="H255" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12514,10 +12472,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H256" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12537,13 +12495,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G257" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H257" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12563,13 +12521,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1426</v>
+        <v>1397</v>
       </c>
       <c r="G258" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="H258" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12595,7 +12553,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12618,10 +12576,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H260" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12641,13 +12599,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G261" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="H261" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12673,7 +12631,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12693,13 +12651,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G263" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="H263" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12719,13 +12677,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="G264" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="H264" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12745,13 +12703,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="G265" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="H265" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12771,13 +12729,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G266" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="H266" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12797,13 +12755,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G267" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="H267" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12823,13 +12781,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="G268" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="H268" t="s">
-        <v>1809</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12852,10 +12810,10 @@
         <v>1377</v>
       </c>
       <c r="G269" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="H269" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12881,7 +12839,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12901,13 +12859,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G271" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="H271" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12927,13 +12885,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G272" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="H272" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12953,13 +12911,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G273" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="H273" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12979,13 +12937,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="G274" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="H274" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13005,13 +12963,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G275" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="H275" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13031,13 +12989,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G276" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="H276" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13060,10 +13018,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H277" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13083,13 +13041,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1437</v>
+        <v>1347</v>
       </c>
       <c r="G278" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="H278" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13109,13 +13067,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G279" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="H279" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13135,13 +13093,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1358</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1679</v>
+        <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13164,7 +13122,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13184,13 +13142,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="G282" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="H282" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13216,7 +13174,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13236,13 +13194,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="G284" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="H284" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13265,10 +13223,10 @@
         <v>1372</v>
       </c>
       <c r="G285" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="H285" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13288,13 +13246,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G286" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="H286" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13314,13 +13272,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="G287" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="H287" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13343,10 +13301,10 @@
         <v>1285</v>
       </c>
       <c r="G288" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H288" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13369,10 +13327,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="H289" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13392,13 +13350,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G290" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="H290" t="s">
-        <v>1809</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13418,13 +13376,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G291" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="H291" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13444,13 +13402,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="G292" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="H292" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13470,13 +13428,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="G293" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="H293" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13496,13 +13454,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G294" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="H294" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13528,7 +13486,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13551,10 +13509,10 @@
         <v>1377</v>
       </c>
       <c r="G296" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H296" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13577,10 +13535,10 @@
         <v>1285</v>
       </c>
       <c r="G297" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H297" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13600,13 +13558,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1426</v>
+        <v>1342</v>
       </c>
       <c r="G298" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="H298" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13626,13 +13584,13 @@
         <v>1276</v>
       </c>
       <c r="F299" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G299" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="H299" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13652,13 +13610,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G300" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="H300" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13678,13 +13636,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="G301" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="H301" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13704,13 +13662,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G302" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="H302" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13730,13 +13688,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="G303" t="s">
-        <v>1694</v>
+        <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13762,7 +13720,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13788,7 +13746,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13808,13 +13766,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G306" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="H306" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13840,7 +13798,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13860,13 +13818,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1370</v>
+        <v>1442</v>
       </c>
       <c r="G308" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="H308" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13892,7 +13850,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13918,7 +13876,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13944,7 +13902,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13964,13 +13922,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G312" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="H312" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13990,13 +13948,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1698</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14022,7 +13980,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14045,10 +14003,10 @@
         <v>1376</v>
       </c>
       <c r="G315" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="H315" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14068,13 +14026,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1353</v>
+        <v>1443</v>
       </c>
       <c r="G316" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="H316" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14097,10 +14055,10 @@
         <v>1377</v>
       </c>
       <c r="G317" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H317" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14120,13 +14078,13 @@
         <v>1279</v>
       </c>
       <c r="F318" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G318" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H318" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14145,8 +14103,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14166,13 +14130,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G320" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="H320" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14192,13 +14156,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1344</v>
+        <v>1444</v>
       </c>
       <c r="G321" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="H321" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14218,13 +14182,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G322" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="H322" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14244,13 +14208,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G323" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="H323" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14270,13 +14234,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G324" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H324" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14302,7 +14266,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14328,7 +14292,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14348,13 +14312,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="G327" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="H327" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14374,13 +14338,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G328" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="H328" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14400,13 +14364,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1426</v>
+        <v>1444</v>
       </c>
       <c r="G329" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="H329" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14429,10 +14393,10 @@
         <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H330" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14452,13 +14416,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G331" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="H331" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14481,10 +14445,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H332" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14504,13 +14468,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G333" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="H333" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14533,10 +14497,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="H334" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14556,13 +14520,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G335" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="H335" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14582,13 +14546,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G336" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="H336" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14608,13 +14572,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1423</v>
+        <v>1448</v>
       </c>
       <c r="G337" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="H337" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14634,13 +14598,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1426</v>
+        <v>1444</v>
       </c>
       <c r="G338" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="H338" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14660,13 +14624,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1423</v>
+        <v>1448</v>
       </c>
       <c r="G339" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="H339" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14689,10 +14653,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="H340" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14712,13 +14676,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1426</v>
+        <v>1444</v>
       </c>
       <c r="G341" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="H341" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14738,13 +14702,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G342" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H342" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14767,10 +14731,10 @@
         <v>1449</v>
       </c>
       <c r="G343" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="H343" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14793,10 +14757,10 @@
         <v>1450</v>
       </c>
       <c r="G344" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="H344" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14816,13 +14780,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G345" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="H345" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14845,10 +14809,10 @@
         <v>1451</v>
       </c>
       <c r="G346" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="H346" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14871,10 +14835,10 @@
         <v>1340</v>
       </c>
       <c r="G347" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="H347" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14900,7 +14864,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14926,7 +14890,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14946,13 +14910,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G350" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H350" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14975,10 +14939,10 @@
         <v>1452</v>
       </c>
       <c r="G351" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="H351" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15001,10 +14965,10 @@
         <v>1453</v>
       </c>
       <c r="G352" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="H352" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15030,7 +14994,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15050,13 +15014,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1390</v>
+        <v>1276</v>
       </c>
       <c r="G354" t="s">
-        <v>1725</v>
+        <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15079,10 +15043,10 @@
         <v>1285</v>
       </c>
       <c r="G355" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="H355" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15108,7 +15072,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15131,10 +15095,10 @@
         <v>1454</v>
       </c>
       <c r="G357" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="H357" t="s">
-        <v>1825</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15154,13 +15118,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G358" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H358" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15183,10 +15147,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H359" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15212,7 +15176,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15232,13 +15196,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1455</v>
+        <v>1354</v>
       </c>
       <c r="G361" t="s">
-        <v>1727</v>
+        <v>1535</v>
       </c>
       <c r="H361" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15261,10 +15225,10 @@
         <v>1276</v>
       </c>
       <c r="G362" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="H362" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15284,13 +15248,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G363" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="H363" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15310,13 +15274,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G364" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="H364" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15336,13 +15300,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G365" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="H365" t="s">
-        <v>1826</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15362,13 +15326,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G366" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="H366" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15391,10 +15355,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="H367" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15414,13 +15378,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="G368" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="H368" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15443,10 +15407,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H369" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15465,14 +15429,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1587</v>
-      </c>
       <c r="H370" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15492,13 +15450,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G371" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H371" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15518,13 +15476,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G372" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="H372" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15544,13 +15502,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G373" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="H373" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15570,7 +15528,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15596,7 +15554,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15616,13 +15574,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G376" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="H376" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15642,13 +15600,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G377" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="H377" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15668,13 +15626,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1342</v>
+        <v>1380</v>
       </c>
       <c r="G378" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="H378" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15694,13 +15652,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G379" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="H379" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15720,13 +15678,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G380" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="H380" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15749,10 +15707,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H381" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15772,13 +15730,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G382" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="H382" t="s">
-        <v>1827</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15798,13 +15756,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G383" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="H383" t="s">
-        <v>1818</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15824,13 +15782,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G384" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="H384" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15850,13 +15808,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G385" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H385" t="s">
-        <v>1817</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15876,13 +15834,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G386" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="H386" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15902,13 +15860,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G387" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="H387" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15928,13 +15886,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G388" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="H388" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15954,13 +15912,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G389" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="H389" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15980,13 +15938,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
       <c r="G390" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="H390" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16006,13 +15964,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G391" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="H391" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16032,13 +15990,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G392" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="H392" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16058,13 +16016,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G393" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="H393" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16084,13 +16042,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G394" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="H394" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16113,10 +16071,10 @@
         <v>1375</v>
       </c>
       <c r="G395" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="H395" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16136,13 +16094,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1345</v>
+        <v>1457</v>
       </c>
       <c r="G396" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="H396" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16162,13 +16120,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G397" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="H397" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16194,7 +16152,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16214,13 +16172,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="G399" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="H399" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16240,13 +16198,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1441</v>
+        <v>1466</v>
       </c>
       <c r="G400" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="H400" t="s">
-        <v>1828</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16272,7 +16230,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16292,13 +16250,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G402" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="H402" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16318,13 +16276,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G403" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="H403" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16344,13 +16302,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G404" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="H404" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16373,10 +16331,10 @@
         <v>1361</v>
       </c>
       <c r="G405" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="H405" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16402,7 +16360,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16425,10 +16383,10 @@
         <v>1467</v>
       </c>
       <c r="G407" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="H407" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16451,10 +16409,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="H408" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16480,7 +16438,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16506,7 +16464,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16529,10 +16487,10 @@
         <v>1468</v>
       </c>
       <c r="G411" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="H411" t="s">
-        <v>1815</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16555,10 +16513,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H412" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16578,13 +16536,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G413" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H413" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16607,10 +16565,10 @@
         <v>1452</v>
       </c>
       <c r="G414" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="H414" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16633,10 +16591,10 @@
         <v>1340</v>
       </c>
       <c r="G415" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="H415" t="s">
-        <v>1829</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16659,10 +16617,10 @@
         <v>1469</v>
       </c>
       <c r="G416" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="H416" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16685,10 +16643,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H417" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16711,10 +16669,10 @@
         <v>1373</v>
       </c>
       <c r="G418" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="H418" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16734,13 +16692,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G419" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H419" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16763,10 +16721,10 @@
         <v>1338</v>
       </c>
       <c r="G420" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="H420" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16786,13 +16744,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G421" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="H421" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16812,13 +16770,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G422" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="H422" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16844,7 +16802,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16870,7 +16828,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16890,13 +16848,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G425" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="H425" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16919,10 +16877,10 @@
         <v>1470</v>
       </c>
       <c r="G426" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="H426" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16941,14 +16899,11 @@
       <c r="E427" t="s">
         <v>1285</v>
       </c>
-      <c r="F427" t="s">
-        <v>1471</v>
-      </c>
       <c r="G427" t="s">
-        <v>1769</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16971,10 +16926,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="H428" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16997,10 +16952,10 @@
         <v>1285</v>
       </c>
       <c r="G429" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H429" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17020,13 +16975,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G430" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="H430" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17046,13 +17001,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G431" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="H431" t="s">
-        <v>1830</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17078,7 +17033,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17098,13 +17053,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G433" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="H433" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17127,10 +17082,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="H434" t="s">
-        <v>1826</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17150,13 +17105,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G435" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="H435" t="s">
-        <v>1817</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17179,10 +17134,10 @@
         <v>1340</v>
       </c>
       <c r="G436" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="H436" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17202,13 +17157,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1398</v>
+        <v>1285</v>
       </c>
       <c r="G437" t="s">
-        <v>1776</v>
+        <v>1481</v>
       </c>
       <c r="H437" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17234,7 +17189,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17254,13 +17209,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G439" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
       <c r="H439" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17280,13 +17235,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G440" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="H440" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17306,13 +17261,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G441" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="H441" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17332,13 +17287,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="G442" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
       <c r="H442" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17358,13 +17313,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1474</v>
+        <v>1424</v>
       </c>
       <c r="G443" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
       <c r="H443" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17387,10 +17342,10 @@
         <v>1358</v>
       </c>
       <c r="G444" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
       <c r="H444" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17410,13 +17365,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="G445" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
       <c r="H445" t="s">
-        <v>1831</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17436,13 +17391,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1365</v>
+        <v>1474</v>
       </c>
       <c r="G446" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
       <c r="H446" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17465,10 +17420,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
       <c r="H447" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17491,10 +17446,10 @@
         <v>1375</v>
       </c>
       <c r="G448" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
       <c r="H448" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17514,13 +17469,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G449" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="H449" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17540,13 +17495,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G450" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H450" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17566,13 +17521,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G451" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="H451" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17592,13 +17547,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G452" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H452" t="s">
         <v>1789</v>
-      </c>
-      <c r="H452" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17618,13 +17573,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1476</v>
+        <v>1349</v>
       </c>
       <c r="G453" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="H453" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17644,13 +17599,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="G454" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
       <c r="H454" t="s">
-        <v>1818</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17670,13 +17625,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="G455" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
       <c r="H455" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17696,13 +17651,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G456" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
       <c r="H456" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17722,13 +17677,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1455</v>
+        <v>1474</v>
       </c>
       <c r="G457" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
       <c r="H457" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17754,7 +17709,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17774,13 +17729,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G459" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
       <c r="H459" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17803,10 +17758,10 @@
         <v>1340</v>
       </c>
       <c r="G460" t="s">
-        <v>1796</v>
+        <v>1784</v>
       </c>
       <c r="H460" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17826,13 +17781,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G461" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
       <c r="H461" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17858,7 +17813,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17878,13 +17833,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1370</v>
+        <v>1442</v>
       </c>
       <c r="G463" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="H463" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda2vec-partial-ner-fasttext-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-fasttext-money.xlsx
@@ -4516,7 +4516,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6!-</t>
+    <t>food|fresh|$6</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4603,7 +4603,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4672,7 +4672,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00!-</t>
+    <t>overpriced|price|$8.00</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4804,7 +4804,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18!-</t>
+    <t>menu|food|$18</t>
   </si>
   <si>
     <t>service|food|great|price</t>
@@ -4813,7 +4813,7 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>dish|reasonable|price|$3-6!-</t>
+    <t>dish|reasonable|price|$3-6</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4885,7 +4885,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70!-|$30!-</t>
+    <t>wine|$70|$30</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -4987,7 +4987,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|$7!-</t>
+    <t>like|$7</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -5008,7 +5008,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24!-</t>
+    <t>good|though|price|$24</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -5017,7 +5017,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10!-</t>
+    <t>great|$10</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -5098,7 +5098,7 @@
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great|100 dollar!-</t>
+    <t>like|great|100 dollar</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5110,13 +5110,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|$*!-</t>
+    <t>wait|staff|$*</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50!-</t>
+    <t>great|great|$8.50</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5218,10 +5218,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5230,7 +5230,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60!-</t>
+    <t>good|though|meal|$60</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5251,19 +5251,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00!-</t>
+    <t>dinner|$400.00</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11!-</t>
+    <t>plate|guacamole|$11</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5290,10 +5290,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10!-</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500!-</t>
+    <t>service|dish|price|$10</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5308,13 +5308,13 @@
     <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|dinner|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|dinner|$55</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5329,10 +5329,10 @@
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25!-</t>
-  </si>
-  <si>
-    <t>place|food|$!-</t>
+    <t>place|would|feel|restaurant|price|$25</t>
+  </si>
+  <si>
+    <t>place|food|$</t>
   </si>
   <si>
     <t>worth</t>
@@ -5341,19 +5341,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29!-</t>
+    <t>menu|$29</t>
   </si>
   <si>
     <t>good|reasonable|great|price</t>
   </si>
   <si>
-    <t>service|rude|well|$500!-</t>
+    <t>service|rude|well|$500</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5362,13 +5362,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24!-</t>
+    <t>never|restaurant|$24</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>place|price</t>
